--- a/data/outputs/数学期刊(下)_altmetric/79Nexus Network Journal.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/79Nexus Network Journal.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE53"/>
+  <dimension ref="A1:CF53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1039,6 +1044,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1290,6 +1298,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1539,6 +1550,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1792,6 +1806,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2045,6 +2062,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2300,6 +2320,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2547,6 +2570,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2794,6 +2820,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3051,6 +3080,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3297,6 +3329,9 @@
       </c>
       <c r="CE11" t="n">
         <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3539,6 +3574,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3788,6 +3826,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4037,6 +4078,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4284,6 +4328,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4527,6 +4574,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4768,6 +4818,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5011,6 +5064,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>16.75</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5252,6 +5308,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5499,6 +5558,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>5.15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5746,6 +5808,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6005,6 +6070,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6260,6 +6328,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6503,6 +6574,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6746,6 +6820,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6991,6 +7068,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7230,6 +7310,9 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7465,6 +7548,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7706,6 +7792,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7945,6 +8034,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8184,6 +8276,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8431,6 +8526,9 @@
         <v>0</v>
       </c>
       <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8663,6 +8761,9 @@
       </c>
       <c r="CE33" t="n">
         <v>0</v>
+      </c>
+      <c r="CF33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -8893,6 +8994,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9130,6 +9234,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9376,6 +9483,9 @@
       </c>
       <c r="CE36" t="n">
         <v>0</v>
+      </c>
+      <c r="CF36" t="n">
+        <v>5.256</v>
       </c>
     </row>
     <row r="37">
@@ -9622,6 +9732,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9859,6 +9972,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10100,6 +10216,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10337,6 +10456,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10574,6 +10696,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10819,6 +10944,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11056,6 +11184,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11297,6 +11428,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11550,6 +11684,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11797,6 +11934,9 @@
         <v>0</v>
       </c>
       <c r="CE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12040,6 +12180,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12279,6 +12422,9 @@
         <v>0</v>
       </c>
       <c r="CE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12522,6 +12668,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12761,6 +12910,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13002,6 +13154,9 @@
         <v>0</v>
       </c>
       <c r="CE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13245,6 +13400,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13490,6 +13648,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
